--- a/stop_words_df.xlsx
+++ b/stop_words_df.xlsx
@@ -14,11 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="883">
   <si>
     <t>words</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>,,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>.1</t>
   </si>
   <si>
@@ -46,7 +61,7 @@
     <t>.9</t>
   </si>
   <si>
-    <t>.o</t>
+    <t>.i</t>
   </si>
   <si>
     <t>0</t>
@@ -136,9 +151,6 @@
     <t>1b</t>
   </si>
   <si>
-    <t>1c</t>
-  </si>
-  <si>
     <t>1e</t>
   </si>
   <si>
@@ -208,9 +220,6 @@
     <t>2s</t>
   </si>
   <si>
-    <t>2t</t>
-  </si>
-  <si>
     <t>2x</t>
   </si>
   <si>
@@ -265,9 +274,6 @@
     <t>3g</t>
   </si>
   <si>
-    <t>3j</t>
-  </si>
-  <si>
     <t>3m</t>
   </si>
   <si>
@@ -325,9 +331,6 @@
     <t>4c</t>
   </si>
   <si>
-    <t>4d</t>
-  </si>
-  <si>
     <t>4g</t>
   </si>
   <si>
@@ -337,12 +340,6 @@
     <t>4k</t>
   </si>
   <si>
-    <t>4l</t>
-  </si>
-  <si>
-    <t>4m</t>
-  </si>
-  <si>
     <t>4o</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>5a</t>
   </si>
   <si>
-    <t>5b</t>
-  </si>
-  <si>
     <t>5c</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>5s</t>
   </si>
   <si>
-    <t>5t</t>
-  </si>
-  <si>
     <t>5x</t>
   </si>
   <si>
@@ -463,21 +454,12 @@
     <t>69</t>
   </si>
   <si>
-    <t>6b</t>
-  </si>
-  <si>
     <t>6c</t>
   </si>
   <si>
     <t>6e</t>
   </si>
   <si>
-    <t>6g</t>
-  </si>
-  <si>
-    <t>6o</t>
-  </si>
-  <si>
     <t>6s</t>
   </si>
   <si>
@@ -523,9 +505,6 @@
     <t>7b</t>
   </si>
   <si>
-    <t>7d</t>
-  </si>
-  <si>
     <t>7n</t>
   </si>
   <si>
@@ -622,22 +601,13 @@
     <t>99</t>
   </si>
   <si>
-    <t>9a</t>
-  </si>
-  <si>
-    <t>9b</t>
-  </si>
-  <si>
-    <t>9c</t>
-  </si>
-  <si>
     <t>9e</t>
   </si>
   <si>
     <t>9s</t>
   </si>
   <si>
-    <t>?a</t>
+    <t>?</t>
   </si>
   <si>
     <t>?i</t>
@@ -658,9 +628,6 @@
     <t>a3</t>
   </si>
   <si>
-    <t>a4</t>
-  </si>
-  <si>
     <t>a7</t>
   </si>
   <si>
@@ -700,15 +667,30 @@
     <t>aj</t>
   </si>
   <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
     <t>an</t>
   </si>
   <si>
     <t>ao</t>
   </si>
   <si>
+    <t>ap</t>
+  </si>
+  <si>
     <t>aq</t>
   </si>
   <si>
+    <t>ar</t>
+  </si>
+  <si>
     <t>as</t>
   </si>
   <si>
@@ -724,6 +706,12 @@
     <t>aw</t>
   </si>
   <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
     <t>az</t>
   </si>
   <si>
@@ -742,9 +730,6 @@
     <t>b3</t>
   </si>
   <si>
-    <t>b4</t>
-  </si>
-  <si>
     <t>b6</t>
   </si>
   <si>
@@ -769,9 +754,6 @@
     <t>bf</t>
   </si>
   <si>
-    <t>bh</t>
-  </si>
-  <si>
     <t>bi</t>
   </si>
   <si>
@@ -781,9 +763,6 @@
     <t>bk</t>
   </si>
   <si>
-    <t>bl</t>
-  </si>
-  <si>
     <t>bm</t>
   </si>
   <si>
@@ -814,9 +793,6 @@
     <t>by</t>
   </si>
   <si>
-    <t>bz</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -835,9 +811,6 @@
     <t>c5</t>
   </si>
   <si>
-    <t>c6</t>
-  </si>
-  <si>
     <t>c8</t>
   </si>
   <si>
@@ -874,12 +847,12 @@
     <t>ck</t>
   </si>
   <si>
-    <t>cl</t>
-  </si>
-  <si>
     <t>cn</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>cp</t>
   </si>
   <si>
@@ -892,6 +865,9 @@
     <t>cs</t>
   </si>
   <si>
+    <t>ct</t>
+  </si>
+  <si>
     <t>cu</t>
   </si>
   <si>
@@ -922,9 +898,6 @@
     <t>d2</t>
   </si>
   <si>
-    <t>d3</t>
-  </si>
-  <si>
     <t>d4</t>
   </si>
   <si>
@@ -949,9 +922,6 @@
     <t>de</t>
   </si>
   <si>
-    <t>dg</t>
-  </si>
-  <si>
     <t>dh</t>
   </si>
   <si>
@@ -967,9 +937,6 @@
     <t>dm</t>
   </si>
   <si>
-    <t>dn</t>
-  </si>
-  <si>
     <t>do</t>
   </si>
   <si>
@@ -1051,6 +1018,9 @@
     <t>eg</t>
   </si>
   <si>
+    <t>eh</t>
+  </si>
+  <si>
     <t>ei</t>
   </si>
   <si>
@@ -1093,12 +1063,18 @@
     <t>ev</t>
   </si>
   <si>
+    <t>ew</t>
+  </si>
+  <si>
     <t>ex</t>
   </si>
   <si>
     <t>ey</t>
   </si>
   <si>
+    <t>ez</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
@@ -1138,24 +1114,12 @@
     <t>fe</t>
   </si>
   <si>
-    <t>ff</t>
-  </si>
-  <si>
     <t>fi</t>
   </si>
   <si>
-    <t>fj</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>fm</t>
   </si>
   <si>
-    <t>fn</t>
-  </si>
-  <si>
     <t>fo</t>
   </si>
   <si>
@@ -1222,30 +1186,18 @@
     <t>gc</t>
   </si>
   <si>
-    <t>gd</t>
-  </si>
-  <si>
     <t>ge</t>
   </si>
   <si>
     <t>gf</t>
   </si>
   <si>
-    <t>gg</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
     <t>gi</t>
   </si>
   <si>
     <t>gj</t>
   </si>
   <si>
-    <t>gl</t>
-  </si>
-  <si>
     <t>gm</t>
   </si>
   <si>
@@ -1258,9 +1210,6 @@
     <t>gq</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
     <t>gs</t>
   </si>
   <si>
@@ -1273,9 +1222,6 @@
     <t>gw</t>
   </si>
   <si>
-    <t>gy</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -1300,6 +1246,9 @@
     <t>h9</t>
   </si>
   <si>
+    <t>ha</t>
+  </si>
+  <si>
     <t>hb</t>
   </si>
   <si>
@@ -1315,10 +1264,7 @@
     <t>hf</t>
   </si>
   <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>hj</t>
+    <t>hi</t>
   </si>
   <si>
     <t>hk</t>
@@ -1366,9 +1312,6 @@
     <t>i3</t>
   </si>
   <si>
-    <t>i?</t>
-  </si>
-  <si>
     <t>ia</t>
   </si>
   <si>
@@ -1381,6 +1324,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>ie</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
@@ -1408,6 +1354,9 @@
     <t>io</t>
   </si>
   <si>
+    <t>ip</t>
+  </si>
+  <si>
     <t>iq</t>
   </si>
   <si>
@@ -1444,9 +1393,6 @@
     <t>j1</t>
   </si>
   <si>
-    <t>j7</t>
-  </si>
-  <si>
     <t>ja</t>
   </si>
   <si>
@@ -1519,9 +1465,6 @@
     <t>k.</t>
   </si>
   <si>
-    <t>k1</t>
-  </si>
-  <si>
     <t>k2</t>
   </si>
   <si>
@@ -1570,18 +1513,15 @@
     <t>kj</t>
   </si>
   <si>
-    <t>kk</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
     <t>km</t>
   </si>
   <si>
     <t>kn</t>
   </si>
   <si>
+    <t>ko</t>
+  </si>
+  <si>
     <t>kp</t>
   </si>
   <si>
@@ -1609,9 +1549,6 @@
     <t>l.</t>
   </si>
   <si>
-    <t>l0</t>
-  </si>
-  <si>
     <t>l1</t>
   </si>
   <si>
@@ -1630,9 +1567,6 @@
     <t>lb</t>
   </si>
   <si>
-    <t>lc</t>
-  </si>
-  <si>
     <t>ld</t>
   </si>
   <si>
@@ -1654,9 +1588,6 @@
     <t>ll</t>
   </si>
   <si>
-    <t>lm</t>
-  </si>
-  <si>
     <t>ln</t>
   </si>
   <si>
@@ -1681,9 +1612,6 @@
     <t>lv</t>
   </si>
   <si>
-    <t>lw</t>
-  </si>
-  <si>
     <t>lx</t>
   </si>
   <si>
@@ -1714,12 +1642,6 @@
     <t>m5</t>
   </si>
   <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
     <t>m9</t>
   </si>
   <si>
@@ -1744,9 +1666,6 @@
     <t>mg</t>
   </si>
   <si>
-    <t>mh</t>
-  </si>
-  <si>
     <t>mi</t>
   </si>
   <si>
@@ -1795,9 +1714,6 @@
     <t>my</t>
   </si>
   <si>
-    <t>mz</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -1819,9 +1735,6 @@
     <t>na</t>
   </si>
   <si>
-    <t>nb</t>
-  </si>
-  <si>
     <t>nc</t>
   </si>
   <si>
@@ -1852,6 +1765,9 @@
     <t>nl</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>np</t>
   </si>
   <si>
@@ -1867,18 +1783,12 @@
     <t>nu</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>nw</t>
   </si>
   <si>
     <t>ny</t>
   </si>
   <si>
-    <t>nz</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -1888,9 +1798,6 @@
     <t>o2</t>
   </si>
   <si>
-    <t>o3</t>
-  </si>
-  <si>
     <t>oa</t>
   </si>
   <si>
@@ -1903,9 +1810,6 @@
     <t>od</t>
   </si>
   <si>
-    <t>oe</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
@@ -1921,6 +1825,9 @@
     <t>oj</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>ol</t>
   </si>
   <si>
@@ -2026,18 +1933,12 @@
     <t>pm</t>
   </si>
   <si>
-    <t>pn</t>
-  </si>
-  <si>
     <t>po</t>
   </si>
   <si>
     <t>pp</t>
   </si>
   <si>
-    <t>pq</t>
-  </si>
-  <si>
     <t>pr</t>
   </si>
   <si>
@@ -2065,6 +1966,12 @@
     <t>q.</t>
   </si>
   <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
     <t>qa</t>
   </si>
   <si>
@@ -2116,9 +2023,6 @@
     <t>r5</t>
   </si>
   <si>
-    <t>r8</t>
-  </si>
-  <si>
     <t>ra</t>
   </si>
   <si>
@@ -2182,9 +2086,6 @@
     <t>rv</t>
   </si>
   <si>
-    <t>rw</t>
-  </si>
-  <si>
     <t>rx</t>
   </si>
   <si>
@@ -2197,9 +2098,6 @@
     <t>s.</t>
   </si>
   <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>s2</t>
   </si>
   <si>
@@ -2218,9 +2116,6 @@
     <t>s7</t>
   </si>
   <si>
-    <t>s8</t>
-  </si>
-  <si>
     <t>sa</t>
   </si>
   <si>
@@ -2257,9 +2152,6 @@
     <t>sm</t>
   </si>
   <si>
-    <t>sn</t>
-  </si>
-  <si>
     <t>so</t>
   </si>
   <si>
@@ -2326,12 +2218,6 @@
     <t>te</t>
   </si>
   <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>tg</t>
-  </si>
-  <si>
     <t>th</t>
   </si>
   <si>
@@ -2368,9 +2254,15 @@
     <t>tu</t>
   </si>
   <si>
+    <t>tv</t>
+  </si>
+  <si>
     <t>tw</t>
   </si>
   <si>
+    <t>tx</t>
+  </si>
+  <si>
     <t>ty</t>
   </si>
   <si>
@@ -2380,24 +2272,15 @@
     <t>u.</t>
   </si>
   <si>
-    <t>u1</t>
-  </si>
-  <si>
     <t>u2</t>
   </si>
   <si>
     <t>u3</t>
   </si>
   <si>
-    <t>u4</t>
-  </si>
-  <si>
     <t>u5</t>
   </si>
   <si>
-    <t>u6</t>
-  </si>
-  <si>
     <t>ua</t>
   </si>
   <si>
@@ -2410,21 +2293,18 @@
     <t>ud</t>
   </si>
   <si>
-    <t>ue</t>
-  </si>
-  <si>
     <t>uf</t>
   </si>
   <si>
-    <t>ug</t>
-  </si>
-  <si>
     <t>uh</t>
   </si>
   <si>
     <t>ui</t>
   </si>
   <si>
+    <t>uk</t>
+  </si>
+  <si>
     <t>ul</t>
   </si>
   <si>
@@ -2455,9 +2335,6 @@
     <t>ux</t>
   </si>
   <si>
-    <t>uy</t>
-  </si>
-  <si>
     <t>uz</t>
   </si>
   <si>
@@ -2497,9 +2374,6 @@
     <t>vf</t>
   </si>
   <si>
-    <t>vg</t>
-  </si>
-  <si>
     <t>vh</t>
   </si>
   <si>
@@ -2623,18 +2497,9 @@
     <t>x1</t>
   </si>
   <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
     <t>x5</t>
   </si>
   <si>
-    <t>x6</t>
-  </si>
-  <si>
     <t>xc</t>
   </si>
   <si>
@@ -2647,9 +2512,6 @@
     <t>xi</t>
   </si>
   <si>
-    <t>xk</t>
-  </si>
-  <si>
     <t>xl</t>
   </si>
   <si>
@@ -2686,18 +2548,9 @@
     <t>y.</t>
   </si>
   <si>
-    <t>y7</t>
-  </si>
-  <si>
     <t>ya</t>
   </si>
   <si>
-    <t>yc</t>
-  </si>
-  <si>
-    <t>yd</t>
-  </si>
-  <si>
     <t>ye</t>
   </si>
   <si>
@@ -2710,21 +2563,12 @@
     <t>yi</t>
   </si>
   <si>
-    <t>yk</t>
-  </si>
-  <si>
-    <t>ym</t>
-  </si>
-  <si>
     <t>yn</t>
   </si>
   <si>
     <t>yo</t>
   </si>
   <si>
-    <t>yr</t>
-  </si>
-  <si>
     <t>ys</t>
   </si>
   <si>
@@ -2749,19 +2593,76 @@
     <t>zi</t>
   </si>
   <si>
-    <t>zo</t>
-  </si>
-  <si>
     <t>zs</t>
   </si>
   <si>
     <t>zu</t>
   </si>
   <si>
-    <t>zy</t>
-  </si>
-  <si>
     <t>zz</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>come</t>
   </si>
 </sst>
 </file>
@@ -3119,7 +3020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B916"/>
+  <dimension ref="A1:B898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10127,7 +10028,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10135,7 +10036,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -10143,7 +10044,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -10151,7 +10052,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10159,7 +10060,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10167,7 +10068,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10175,7 +10076,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10183,7 +10084,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -10191,7 +10092,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10199,7 +10100,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -10207,7 +10108,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -10215,7 +10116,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -10223,7 +10124,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -10231,7 +10132,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -10239,7 +10140,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -10247,7 +10148,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -10255,7 +10156,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="s">
-        <v>891</v>
+        <v>862</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -10263,7 +10164,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -10271,7 +10172,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -10279,7 +10180,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -10287,7 +10188,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -10295,7 +10196,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -10303,151 +10204,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="1">
-        <v>897</v>
-      </c>
-      <c r="B899" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="1">
-        <v>898</v>
-      </c>
-      <c r="B900" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="1">
-        <v>899</v>
-      </c>
-      <c r="B901" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="1">
-        <v>900</v>
-      </c>
-      <c r="B902" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="1">
-        <v>901</v>
-      </c>
-      <c r="B903" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="1">
-        <v>902</v>
-      </c>
-      <c r="B904" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="1">
-        <v>903</v>
-      </c>
-      <c r="B905" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2">
-      <c r="A906" s="1">
-        <v>904</v>
-      </c>
-      <c r="B906" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2">
-      <c r="A907" s="1">
-        <v>905</v>
-      </c>
-      <c r="B907" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="908" spans="1:2">
-      <c r="A908" s="1">
-        <v>906</v>
-      </c>
-      <c r="B908" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2">
-      <c r="A909" s="1">
-        <v>907</v>
-      </c>
-      <c r="B909" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2">
-      <c r="A910" s="1">
-        <v>908</v>
-      </c>
-      <c r="B910" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2">
-      <c r="A911" s="1">
-        <v>909</v>
-      </c>
-      <c r="B911" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2">
-      <c r="A912" s="1">
-        <v>910</v>
-      </c>
-      <c r="B912" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2">
-      <c r="A913" s="1">
-        <v>911</v>
-      </c>
-      <c r="B913" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2">
-      <c r="A914" s="1">
-        <v>912</v>
-      </c>
-      <c r="B914" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2">
-      <c r="A915" s="1">
-        <v>913</v>
-      </c>
-      <c r="B915" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2">
-      <c r="A916" s="1">
-        <v>914</v>
-      </c>
-      <c r="B916" t="s">
-        <v>915</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/stop_words_df.xlsx
+++ b/stop_words_df.xlsx
@@ -14,24 +14,1665 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="907">
   <si>
     <t>words</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>t.</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
-    <t>,</t>
+    <t>80</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>w.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s.</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>uh</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>j.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>r.</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>e.</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>d.</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>c.</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>m.</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>b.</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>a.</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>f.</t>
+  </si>
+  <si>
+    <t>i.</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>v.</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>ig</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>uc</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>h.</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>il</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>um</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>l.</t>
+  </si>
+  <si>
+    <t>p.</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>dj</t>
+  </si>
+  <si>
+    <t>k.</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>g.</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>wi</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>ak</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>n.</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>g8</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>iq</t>
+  </si>
+  <si>
+    <t>o.</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>fe</t>
+  </si>
+  <si>
+    <t>ct</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>vp</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>yu</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>rv</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>fu</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>x.</t>
+  </si>
+  <si>
+    <t>xm</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>y.</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>gq</t>
+  </si>
+  <si>
+    <t>ev</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>z.</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>wa</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>bj</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>ix</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>xu</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>uv</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>q.</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <t>0.</t>
+  </si>
+  <si>
+    <t>u.</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>5g</t>
+  </si>
+  <si>
+    <t>4g</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>ji</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>ow</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>ky</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>wb</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>jc</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>ez</t>
+  </si>
+  <si>
+    <t>kc</t>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>qi</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>ej</t>
+  </si>
+  <si>
+    <t>aj</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>eb</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>lg</t>
+  </si>
+  <si>
+    <t>gs</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>ju</t>
+  </si>
+  <si>
+    <t>uw</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>qr</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>pj</t>
+  </si>
+  <si>
+    <t>vj</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
   <si>
     <t>,,</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>..</t>
+    <t>xo</t>
+  </si>
+  <si>
+    <t>rn</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>cj</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>wh</t>
+  </si>
+  <si>
+    <t>oi</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>vc</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>hq</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>ry</t>
+  </si>
+  <si>
+    <t>oy</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>jv</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>vx</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>rj</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>m5</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>jb</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>ep</t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>oc</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>oj</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>aq</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>h9</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>.7</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>vf</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>ib</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>ud</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>vt</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>qu</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>9s</t>
+  </si>
+  <si>
+    <t>ik</t>
+  </si>
+  <si>
+    <t>ao</t>
   </si>
   <si>
     <t>.1</t>
@@ -40,2568 +1681,927 @@
     <t>.2</t>
   </si>
   <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>jt</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>.6</t>
+  </si>
+  <si>
+    <t>jl</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>.5</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>yg</t>
+  </si>
+  <si>
+    <t>mj</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>lz</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>jf</t>
+  </si>
+  <si>
+    <t>n9</t>
+  </si>
+  <si>
+    <t>ih</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>qe</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>g6</t>
+  </si>
+  <si>
+    <t>wr</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>rl</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>7x</t>
+  </si>
+  <si>
+    <t>lj</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>nd</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>pu</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>hb</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>.4</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>nj</t>
+  </si>
+  <si>
+    <t>nk</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>4k</t>
+  </si>
+  <si>
+    <t>zs</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>3q</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>bk</t>
+  </si>
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
     <t>.3</t>
   </si>
   <si>
-    <t>.4</t>
-  </si>
-  <si>
-    <t>.5</t>
-  </si>
-  <si>
-    <t>.6</t>
-  </si>
-  <si>
-    <t>.7</t>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>jz</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>k5</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>.9</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>ck</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>wg</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>ey</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>kv</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>oa</t>
+  </si>
+  <si>
+    <t>kd</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>n7</t>
+  </si>
+  <si>
+    <t>ys</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>cx</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>zc</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>sx</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>jw</t>
+  </si>
+  <si>
+    <t>eg</t>
+  </si>
+  <si>
+    <t>vm</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>gj</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
   <si>
     <t>.8</t>
   </si>
   <si>
-    <t>.9</t>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>zi</t>
+  </si>
+  <si>
+    <t>iz</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>wp</t>
+  </si>
+  <si>
+    <t>jg</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>nw</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>iy</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>rh</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>l8</t>
+  </si>
+  <si>
+    <t>wx</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>4o</t>
+  </si>
+  <si>
+    <t>hk</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>qt</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>4w</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>bm</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>k6</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>nh</t>
+  </si>
+  <si>
+    <t>?i</t>
+  </si>
+  <si>
+    <t>ov</t>
+  </si>
+  <si>
+    <t>tw</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>9e</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>4x</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>4r</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>yf</t>
+  </si>
+  <si>
+    <t>eo</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>1o</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>ek</t>
+  </si>
+  <si>
+    <t>rq</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>8x</t>
+  </si>
+  <si>
+    <t>wj</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>ux</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>xt</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>k7</t>
+  </si>
+  <si>
+    <t>n8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>l6</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>5o</t>
+  </si>
+  <si>
+    <t>kh</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>bx</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>vd</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>wl</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t>5d</t>
+  </si>
+  <si>
+    <t>dq</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>jn</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>6e</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>7n</t>
+  </si>
+  <si>
+    <t>2f</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>qs</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>wy</t>
   </si>
   <si>
     <t>.i</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>0f</t>
-  </si>
-  <si>
-    <t>0h</t>
-  </si>
-  <si>
-    <t>0s</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>1e</t>
-  </si>
-  <si>
-    <t>1l</t>
-  </si>
-  <si>
-    <t>1o</t>
-  </si>
-  <si>
-    <t>1s</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>2f</t>
-  </si>
-  <si>
-    <t>2g</t>
-  </si>
-  <si>
-    <t>2s</t>
-  </si>
-  <si>
-    <t>2x</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>3b</t>
-  </si>
-  <si>
-    <t>3c</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>3g</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>3q</t>
-  </si>
-  <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>3x</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>4a</t>
-  </si>
-  <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>4c</t>
-  </si>
-  <si>
-    <t>4g</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>4k</t>
-  </si>
-  <si>
-    <t>4o</t>
-  </si>
-  <si>
-    <t>4r</t>
-  </si>
-  <si>
-    <t>4s</t>
-  </si>
-  <si>
-    <t>4w</t>
-  </si>
-  <si>
-    <t>4x</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>5a</t>
-  </si>
-  <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>5d</t>
-  </si>
-  <si>
-    <t>5g</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>5k</t>
-  </si>
-  <si>
-    <t>5o</t>
-  </si>
-  <si>
-    <t>5s</t>
-  </si>
-  <si>
-    <t>5x</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>6c</t>
-  </si>
-  <si>
-    <t>6e</t>
-  </si>
-  <si>
-    <t>6s</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>7a</t>
-  </si>
-  <si>
-    <t>7b</t>
-  </si>
-  <si>
-    <t>7n</t>
-  </si>
-  <si>
-    <t>7s</t>
-  </si>
-  <si>
-    <t>7x</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>8a</t>
-  </si>
-  <si>
-    <t>8b</t>
-  </si>
-  <si>
-    <t>8c</t>
-  </si>
-  <si>
-    <t>8s</t>
-  </si>
-  <si>
-    <t>8x</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>9e</t>
-  </si>
-  <si>
-    <t>9s</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>?i</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a.</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>ae</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>ah</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>aj</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>al</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>ao</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>au</t>
-  </si>
-  <si>
-    <t>av</t>
-  </si>
-  <si>
-    <t>aw</t>
-  </si>
-  <si>
-    <t>ax</t>
-  </si>
-  <si>
-    <t>ay</t>
-  </si>
-  <si>
-    <t>az</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>b.</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
-    <t>ba</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>bd</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>bf</t>
-  </si>
-  <si>
-    <t>bi</t>
-  </si>
-  <si>
-    <t>bj</t>
-  </si>
-  <si>
-    <t>bk</t>
-  </si>
-  <si>
-    <t>bm</t>
-  </si>
-  <si>
-    <t>bo</t>
-  </si>
-  <si>
-    <t>bp</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>bs</t>
-  </si>
-  <si>
-    <t>bt</t>
-  </si>
-  <si>
-    <t>bu</t>
-  </si>
-  <si>
-    <t>bw</t>
-  </si>
-  <si>
-    <t>bx</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>c.</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>cb</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>cg</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>ci</t>
-  </si>
-  <si>
-    <t>cj</t>
-  </si>
-  <si>
-    <t>ck</t>
-  </si>
-  <si>
-    <t>cn</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>cq</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>ct</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>cw</t>
-  </si>
-  <si>
-    <t>cx</t>
-  </si>
-  <si>
-    <t>cy</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>d.</t>
-  </si>
-  <si>
-    <t>d0</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>d8</t>
-  </si>
-  <si>
-    <t>d9</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>dh</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>dj</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>dm</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>dp</t>
-  </si>
-  <si>
-    <t>dq</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>du</t>
-  </si>
-  <si>
-    <t>dv</t>
-  </si>
-  <si>
-    <t>dw</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>dy</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>e.</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
-    <t>e8</t>
-  </si>
-  <si>
-    <t>ea</t>
-  </si>
-  <si>
-    <t>eb</t>
-  </si>
-  <si>
-    <t>ec</t>
-  </si>
-  <si>
-    <t>ed</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>ef</t>
-  </si>
-  <si>
-    <t>eg</t>
-  </si>
-  <si>
-    <t>eh</t>
-  </si>
-  <si>
-    <t>ei</t>
-  </si>
-  <si>
-    <t>ej</t>
-  </si>
-  <si>
-    <t>ek</t>
-  </si>
-  <si>
-    <t>el</t>
-  </si>
-  <si>
-    <t>em</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>eo</t>
-  </si>
-  <si>
-    <t>ep</t>
-  </si>
-  <si>
-    <t>eq</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>et</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>ev</t>
-  </si>
-  <si>
-    <t>ew</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>ey</t>
-  </si>
-  <si>
-    <t>ez</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>f.</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
-    <t>fc</t>
-  </si>
-  <si>
-    <t>fe</t>
-  </si>
-  <si>
-    <t>fi</t>
-  </si>
-  <si>
-    <t>fm</t>
-  </si>
-  <si>
-    <t>fo</t>
-  </si>
-  <si>
-    <t>fp</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>fu</t>
-  </si>
-  <si>
-    <t>fw</t>
-  </si>
-  <si>
-    <t>fx</t>
-  </si>
-  <si>
-    <t>fy</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>g.</t>
-  </si>
-  <si>
-    <t>g1</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>g3</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>g5</t>
-  </si>
-  <si>
-    <t>g6</t>
-  </si>
-  <si>
-    <t>g7</t>
-  </si>
-  <si>
-    <t>g8</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>gb</t>
-  </si>
-  <si>
-    <t>gc</t>
-  </si>
-  <si>
-    <t>ge</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>gi</t>
-  </si>
-  <si>
-    <t>gj</t>
-  </si>
-  <si>
-    <t>gm</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>gp</t>
-  </si>
-  <si>
-    <t>gq</t>
-  </si>
-  <si>
-    <t>gs</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>gu</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>h.</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h3</t>
-  </si>
-  <si>
-    <t>h5</t>
-  </si>
-  <si>
-    <t>h7</t>
-  </si>
-  <si>
-    <t>h9</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>hb</t>
-  </si>
-  <si>
-    <t>hc</t>
-  </si>
-  <si>
-    <t>hd</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>hf</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>hk</t>
+    <t>wv</t>
   </si>
   <si>
     <t>hl</t>
   </si>
   <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>hq</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>hw</t>
-  </si>
-  <si>
-    <t>hy</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>i.</t>
-  </si>
-  <si>
-    <t>i3</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>ib</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>ig</t>
-  </si>
-  <si>
-    <t>ih</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>ik</t>
-  </si>
-  <si>
-    <t>il</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>io</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>iq</t>
-  </si>
-  <si>
-    <t>ir</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>iu</t>
-  </si>
-  <si>
-    <t>iv</t>
-  </si>
-  <si>
-    <t>ix</t>
-  </si>
-  <si>
-    <t>iy</t>
-  </si>
-  <si>
-    <t>iz</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>j.</t>
-  </si>
-  <si>
-    <t>j1</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>jb</t>
-  </si>
-  <si>
-    <t>jc</t>
-  </si>
-  <si>
-    <t>jd</t>
-  </si>
-  <si>
-    <t>je</t>
-  </si>
-  <si>
-    <t>jf</t>
-  </si>
-  <si>
-    <t>jg</t>
-  </si>
-  <si>
-    <t>ji</t>
-  </si>
-  <si>
-    <t>jj</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>jl</t>
-  </si>
-  <si>
-    <t>jm</t>
-  </si>
-  <si>
-    <t>jn</t>
-  </si>
-  <si>
-    <t>jo</t>
-  </si>
-  <si>
-    <t>jp</t>
-  </si>
-  <si>
-    <t>jr</t>
-  </si>
-  <si>
-    <t>js</t>
-  </si>
-  <si>
-    <t>jt</t>
-  </si>
-  <si>
-    <t>ju</t>
-  </si>
-  <si>
-    <t>jv</t>
-  </si>
-  <si>
-    <t>jw</t>
-  </si>
-  <si>
-    <t>jz</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>k.</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>k4</t>
-  </si>
-  <si>
-    <t>k5</t>
-  </si>
-  <si>
-    <t>k6</t>
-  </si>
-  <si>
-    <t>k7</t>
-  </si>
-  <si>
-    <t>k8</t>
-  </si>
-  <si>
-    <t>k9</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>kb</t>
-  </si>
-  <si>
-    <t>kc</t>
-  </si>
-  <si>
-    <t>kd</t>
-  </si>
-  <si>
-    <t>ke</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>kh</t>
-  </si>
-  <si>
-    <t>ki</t>
-  </si>
-  <si>
-    <t>kj</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>kn</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>kp</t>
-  </si>
-  <si>
-    <t>kr</t>
-  </si>
-  <si>
-    <t>ks</t>
-  </si>
-  <si>
-    <t>kt</t>
-  </si>
-  <si>
-    <t>ku</t>
-  </si>
-  <si>
-    <t>kv</t>
-  </si>
-  <si>
-    <t>ky</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>l.</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l6</t>
-  </si>
-  <si>
-    <t>l8</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>ld</t>
-  </si>
-  <si>
-    <t>le</t>
-  </si>
-  <si>
-    <t>lg</t>
-  </si>
-  <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>lj</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>ln</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>lp</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>lu</t>
-  </si>
-  <si>
-    <t>lv</t>
-  </si>
-  <si>
-    <t>lx</t>
-  </si>
-  <si>
-    <t>ly</t>
-  </si>
-  <si>
-    <t>lz</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>m.</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>ma</t>
-  </si>
-  <si>
-    <t>mb</t>
-  </si>
-  <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>md</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>mf</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>mi</t>
-  </si>
-  <si>
-    <t>mj</t>
-  </si>
-  <si>
-    <t>mk</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>mq</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>mt</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>mv</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>mx</t>
-  </si>
-  <si>
-    <t>my</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>n.</t>
-  </si>
-  <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>n7</t>
-  </si>
-  <si>
-    <t>n8</t>
-  </si>
-  <si>
-    <t>n9</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>nc</t>
-  </si>
-  <si>
-    <t>nd</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>nf</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>nh</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>nj</t>
-  </si>
-  <si>
-    <t>nk</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>np</t>
-  </si>
-  <si>
-    <t>nr</t>
-  </si>
-  <si>
-    <t>ns</t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>nw</t>
-  </si>
-  <si>
-    <t>ny</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>o.</t>
-  </si>
-  <si>
-    <t>o2</t>
-  </si>
-  <si>
-    <t>oa</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>oc</t>
-  </si>
-  <si>
-    <t>od</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <t>oh</t>
-  </si>
-  <si>
-    <t>oi</t>
-  </si>
-  <si>
-    <t>oj</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ol</t>
-  </si>
-  <si>
-    <t>om</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>oo</t>
-  </si>
-  <si>
-    <t>op</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>os</t>
-  </si>
-  <si>
-    <t>ot</t>
-  </si>
-  <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t>ov</t>
-  </si>
-  <si>
-    <t>ow</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>oy</t>
-  </si>
-  <si>
-    <t>oz</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>p.</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>pb</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>pd</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>pj</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>pr</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>pv</t>
-  </si>
-  <si>
-    <t>pw</t>
-  </si>
-  <si>
-    <t>px</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>q.</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>qa</t>
-  </si>
-  <si>
-    <t>qb</t>
-  </si>
-  <si>
-    <t>qc</t>
-  </si>
-  <si>
-    <t>qe</t>
-  </si>
-  <si>
-    <t>qi</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>qr</t>
-  </si>
-  <si>
-    <t>qs</t>
-  </si>
-  <si>
-    <t>qt</t>
-  </si>
-  <si>
-    <t>qu</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>r.</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>ra</t>
-  </si>
-  <si>
-    <t>rb</t>
-  </si>
-  <si>
-    <t>rc</t>
-  </si>
-  <si>
-    <t>rd</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>rg</t>
-  </si>
-  <si>
-    <t>rh</t>
-  </si>
-  <si>
-    <t>ri</t>
-  </si>
-  <si>
-    <t>rj</t>
-  </si>
-  <si>
-    <t>rl</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>rn</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>rp</t>
-  </si>
-  <si>
-    <t>rq</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>rv</t>
-  </si>
-  <si>
-    <t>rx</t>
-  </si>
-  <si>
-    <t>ry</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>s.</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s7</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>sb</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>se</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>sg</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>sk</t>
-  </si>
-  <si>
-    <t>sl</t>
-  </si>
-  <si>
-    <t>sm</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>sv</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>sx</t>
-  </si>
-  <si>
-    <t>sy</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>t.</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
-    <t>tc</t>
-  </si>
-  <si>
-    <t>td</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>tj</t>
-  </si>
-  <si>
-    <t>tk</t>
-  </si>
-  <si>
-    <t>tl</t>
-  </si>
-  <si>
-    <t>tm</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>tp</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>tu</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>tw</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
-    <t>ty</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>u.</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>u3</t>
-  </si>
-  <si>
-    <t>u5</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>ub</t>
-  </si>
-  <si>
-    <t>uc</t>
-  </si>
-  <si>
-    <t>ud</t>
-  </si>
-  <si>
-    <t>uf</t>
-  </si>
-  <si>
-    <t>uh</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>ul</t>
-  </si>
-  <si>
-    <t>um</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>ur</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>ut</t>
-  </si>
-  <si>
-    <t>uv</t>
-  </si>
-  <si>
-    <t>uw</t>
-  </si>
-  <si>
-    <t>ux</t>
-  </si>
-  <si>
-    <t>uz</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>v.</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
-    <t>v8</t>
-  </si>
-  <si>
-    <t>va</t>
-  </si>
-  <si>
-    <t>vc</t>
-  </si>
-  <si>
-    <t>vd</t>
-  </si>
-  <si>
-    <t>ve</t>
-  </si>
-  <si>
-    <t>vf</t>
-  </si>
-  <si>
-    <t>vh</t>
-  </si>
-  <si>
-    <t>vi</t>
-  </si>
-  <si>
-    <t>vj</t>
-  </si>
-  <si>
-    <t>vm</t>
-  </si>
-  <si>
-    <t>vo</t>
-  </si>
-  <si>
-    <t>vp</t>
-  </si>
-  <si>
-    <t>vr</t>
-  </si>
-  <si>
-    <t>vs</t>
-  </si>
-  <si>
-    <t>vt</t>
-  </si>
-  <si>
-    <t>vu</t>
-  </si>
-  <si>
-    <t>vw</t>
-  </si>
-  <si>
-    <t>vx</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>w.</t>
-  </si>
-  <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>w8</t>
-  </si>
-  <si>
-    <t>wa</t>
-  </si>
-  <si>
-    <t>wb</t>
-  </si>
-  <si>
-    <t>wc</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>wg</t>
-  </si>
-  <si>
-    <t>wh</t>
-  </si>
-  <si>
-    <t>wi</t>
-  </si>
-  <si>
-    <t>wj</t>
-  </si>
-  <si>
-    <t>wk</t>
-  </si>
-  <si>
-    <t>wl</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>wp</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>ws</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>wv</t>
-  </si>
-  <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>wx</t>
-  </si>
-  <si>
-    <t>wy</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x.</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>xc</t>
-  </si>
-  <si>
-    <t>xd</t>
-  </si>
-  <si>
-    <t>xe</t>
-  </si>
-  <si>
-    <t>xi</t>
-  </si>
-  <si>
-    <t>xl</t>
-  </si>
-  <si>
-    <t>xm</t>
-  </si>
-  <si>
-    <t>xo</t>
-  </si>
-  <si>
-    <t>xp</t>
-  </si>
-  <si>
-    <t>xs</t>
-  </si>
-  <si>
-    <t>xt</t>
-  </si>
-  <si>
-    <t>xu</t>
-  </si>
-  <si>
-    <t>xv</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>xy</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>y.</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>ye</t>
-  </si>
-  <si>
-    <t>yf</t>
-  </si>
-  <si>
-    <t>yg</t>
-  </si>
-  <si>
-    <t>yi</t>
-  </si>
-  <si>
     <t>yn</t>
   </si>
   <si>
-    <t>yo</t>
-  </si>
-  <si>
-    <t>ys</t>
-  </si>
-  <si>
-    <t>yu</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>z.</t>
-  </si>
-  <si>
-    <t>za</t>
-  </si>
-  <si>
-    <t>zc</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>zi</t>
-  </si>
-  <si>
-    <t>zs</t>
-  </si>
-  <si>
-    <t>zu</t>
-  </si>
-  <si>
-    <t>zz</t>
-  </si>
-  <si>
     <t>say</t>
   </si>
   <si>
@@ -2663,6 +2663,78 @@
   </si>
   <si>
     <t>come</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>npr</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>called</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
 </sst>
 </file>
@@ -3020,7 +3092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B898"/>
+  <dimension ref="A1:B909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10028,7 +10100,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -10036,7 +10108,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -10044,7 +10116,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -10052,7 +10124,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10060,7 +10132,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -10068,7 +10140,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10076,7 +10148,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10084,7 +10156,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -10092,7 +10164,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -10100,7 +10172,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -10108,7 +10180,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -10116,7 +10188,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -10124,7 +10196,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -10132,7 +10204,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -10140,7 +10212,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -10148,7 +10220,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -10156,7 +10228,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -10164,7 +10236,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -10172,7 +10244,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -10180,7 +10252,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -10188,7 +10260,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -10196,7 +10268,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -10204,7 +10276,95 @@
         <v>896</v>
       </c>
       <c r="B898" t="s">
-        <v>882</v>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="1">
+        <v>897</v>
+      </c>
+      <c r="B899" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="1">
+        <v>898</v>
+      </c>
+      <c r="B900" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="1">
+        <v>899</v>
+      </c>
+      <c r="B901" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="1">
+        <v>900</v>
+      </c>
+      <c r="B902" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="1">
+        <v>901</v>
+      </c>
+      <c r="B903" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="1">
+        <v>902</v>
+      </c>
+      <c r="B904" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="1">
+        <v>903</v>
+      </c>
+      <c r="B905" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="1">
+        <v>904</v>
+      </c>
+      <c r="B906" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="1">
+        <v>905</v>
+      </c>
+      <c r="B907" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="1">
+        <v>906</v>
+      </c>
+      <c r="B908" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="1">
+        <v>907</v>
+      </c>
+      <c r="B909" t="s">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
